--- a/data/misure_masse.xlsx
+++ b/data/misure_masse.xlsx
@@ -25,13 +25,13 @@
     <t xml:space="preserve">oggetto</t>
   </si>
   <si>
-    <t xml:space="preserve">massa [g]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molla 1 (pretensionata)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molla 2 (NON pretensionata)</t>
+    <t xml:space="preserve">massa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molla pretensionata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molla non pretensionata</t>
   </si>
   <si>
     <t xml:space="preserve">piatto</t>
@@ -122,8 +122,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -155,125 +159,125 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>24.98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>15.46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>8.28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>19.87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>19.54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>19.63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>19.86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>20.13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>19.99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>19.66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>19.91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>19.99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>20.01</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="2"/>
+      <c r="D24" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
